--- a/(敬老)詳細設計書.xlsx
+++ b/(敬老)詳細設計書.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\個人開発\③敬老祝いアンケート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB38A93B-BCE8-4C7D-8FEB-1D2249AF7189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093DE2CF-6B00-497C-9A31-219C4095B51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BEED9DE4-747A-4FBB-A3BA-7674A3D7145D}"/>
   </bookViews>
   <sheets>
-    <sheet name="人気投票" sheetId="2" r:id="rId1"/>
+    <sheet name="敬老" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -534,7 +534,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -634,6 +634,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -652,6 +655,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -661,7 +673,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -669,21 +681,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2243,43 +2240,43 @@
       <c r="D5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="33" t="s">
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="34"/>
-      <c r="AE5" s="34"/>
-      <c r="AF5" s="34"/>
-      <c r="AG5" s="34"/>
-      <c r="AH5" s="34"/>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="34"/>
-      <c r="AK5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="35"/>
+      <c r="AJ5" s="35"/>
+      <c r="AK5" s="36"/>
       <c r="AL5" s="27"/>
       <c r="AM5" s="27"/>
       <c r="AN5" s="13"/>
@@ -2548,50 +2545,50 @@
     </row>
     <row r="12" spans="2:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="2"/>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="36"/>
       <c r="I12" s="27"/>
       <c r="J12" s="28"/>
-      <c r="K12" s="36" t="s">
+      <c r="K12" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="39"/>
       <c r="P12" s="28"/>
       <c r="Q12" s="28"/>
       <c r="R12" s="28"/>
-      <c r="S12" s="36" t="s">
+      <c r="S12" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="T12" s="37"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="39"/>
       <c r="X12" s="28"/>
       <c r="Y12" s="28"/>
-      <c r="Z12" s="48"/>
-      <c r="AA12" s="48"/>
-      <c r="AB12" s="33" t="s">
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="AC12" s="34"/>
-      <c r="AD12" s="34"/>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="35"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="35"/>
+      <c r="AE12" s="35"/>
+      <c r="AF12" s="36"/>
       <c r="AG12" s="27"/>
-      <c r="AI12" s="33" t="s">
+      <c r="AI12" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="AJ12" s="34"/>
-      <c r="AK12" s="34"/>
-      <c r="AL12" s="34"/>
-      <c r="AM12" s="34"/>
-      <c r="AN12" s="35"/>
+      <c r="AJ12" s="35"/>
+      <c r="AK12" s="35"/>
+      <c r="AL12" s="35"/>
+      <c r="AM12" s="35"/>
+      <c r="AN12" s="36"/>
     </row>
     <row r="13" spans="2:40" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="2"/>
@@ -3067,38 +3064,38 @@
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
       <c r="J25" s="15"/>
-      <c r="K25" s="33" t="s">
+      <c r="K25" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="34"/>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="34"/>
-      <c r="AA25" s="34"/>
-      <c r="AB25" s="34"/>
-      <c r="AC25" s="34"/>
-      <c r="AD25" s="34"/>
-      <c r="AE25" s="34"/>
-      <c r="AF25" s="34"/>
-      <c r="AG25" s="34"/>
-      <c r="AH25" s="34"/>
-      <c r="AI25" s="34"/>
-      <c r="AJ25" s="34"/>
-      <c r="AK25" s="34"/>
-      <c r="AL25" s="34"/>
-      <c r="AM25" s="35"/>
-      <c r="AN25" s="49"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="35"/>
+      <c r="Y25" s="35"/>
+      <c r="Z25" s="35"/>
+      <c r="AA25" s="35"/>
+      <c r="AB25" s="35"/>
+      <c r="AC25" s="35"/>
+      <c r="AD25" s="35"/>
+      <c r="AE25" s="35"/>
+      <c r="AF25" s="35"/>
+      <c r="AG25" s="35"/>
+      <c r="AH25" s="35"/>
+      <c r="AI25" s="35"/>
+      <c r="AJ25" s="35"/>
+      <c r="AK25" s="35"/>
+      <c r="AL25" s="35"/>
+      <c r="AM25" s="36"/>
+      <c r="AN25" s="33"/>
       <c r="AO25" s="3"/>
     </row>
     <row r="26" spans="2:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3187,50 +3184,50 @@
     </row>
     <row r="28" spans="2:41" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="2"/>
-      <c r="F28" s="33" t="s">
+      <c r="F28" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="G28" s="34"/>
-      <c r="H28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="36"/>
       <c r="I28" s="27"/>
       <c r="J28" s="28"/>
-      <c r="K28" s="36" t="s">
+      <c r="K28" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="39"/>
       <c r="P28" s="28"/>
       <c r="Q28" s="28"/>
       <c r="R28" s="28"/>
-      <c r="S28" s="36" t="s">
+      <c r="S28" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="T28" s="37"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="37"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="38"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="38"/>
+      <c r="W28" s="38"/>
+      <c r="X28" s="39"/>
       <c r="Y28" s="28"/>
-      <c r="Z28" s="48"/>
-      <c r="AA28" s="48"/>
-      <c r="AB28" s="33" t="s">
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="AC28" s="34"/>
-      <c r="AD28" s="34"/>
-      <c r="AE28" s="34"/>
-      <c r="AF28" s="35"/>
+      <c r="AC28" s="35"/>
+      <c r="AD28" s="35"/>
+      <c r="AE28" s="35"/>
+      <c r="AF28" s="36"/>
       <c r="AG28" s="27"/>
-      <c r="AI28" s="33" t="s">
+      <c r="AI28" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="AJ28" s="34"/>
-      <c r="AK28" s="34"/>
-      <c r="AL28" s="34"/>
-      <c r="AM28" s="34"/>
-      <c r="AN28" s="35"/>
+      <c r="AJ28" s="35"/>
+      <c r="AK28" s="35"/>
+      <c r="AL28" s="35"/>
+      <c r="AM28" s="35"/>
+      <c r="AN28" s="36"/>
     </row>
     <row r="29" spans="2:41" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="2"/>
@@ -3706,38 +3703,38 @@
       <c r="H41" s="15"/>
       <c r="I41" s="15"/>
       <c r="J41" s="15"/>
-      <c r="K41" s="33" t="s">
+      <c r="K41" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="L41" s="34"/>
-      <c r="M41" s="34"/>
-      <c r="N41" s="34"/>
-      <c r="O41" s="34"/>
-      <c r="P41" s="34"/>
-      <c r="Q41" s="34"/>
-      <c r="R41" s="34"/>
-      <c r="S41" s="34"/>
-      <c r="T41" s="34"/>
-      <c r="U41" s="34"/>
-      <c r="V41" s="34"/>
-      <c r="W41" s="34"/>
-      <c r="X41" s="34"/>
-      <c r="Y41" s="34"/>
-      <c r="Z41" s="34"/>
-      <c r="AA41" s="34"/>
-      <c r="AB41" s="34"/>
-      <c r="AC41" s="34"/>
-      <c r="AD41" s="34"/>
-      <c r="AE41" s="34"/>
-      <c r="AF41" s="34"/>
-      <c r="AG41" s="34"/>
-      <c r="AH41" s="34"/>
-      <c r="AI41" s="34"/>
-      <c r="AJ41" s="34"/>
-      <c r="AK41" s="34"/>
-      <c r="AL41" s="34"/>
-      <c r="AM41" s="35"/>
-      <c r="AN41" s="49"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="35"/>
+      <c r="Q41" s="35"/>
+      <c r="R41" s="35"/>
+      <c r="S41" s="35"/>
+      <c r="T41" s="35"/>
+      <c r="U41" s="35"/>
+      <c r="V41" s="35"/>
+      <c r="W41" s="35"/>
+      <c r="X41" s="35"/>
+      <c r="Y41" s="35"/>
+      <c r="Z41" s="35"/>
+      <c r="AA41" s="35"/>
+      <c r="AB41" s="35"/>
+      <c r="AC41" s="35"/>
+      <c r="AD41" s="35"/>
+      <c r="AE41" s="35"/>
+      <c r="AF41" s="35"/>
+      <c r="AG41" s="35"/>
+      <c r="AH41" s="35"/>
+      <c r="AI41" s="35"/>
+      <c r="AJ41" s="35"/>
+      <c r="AK41" s="35"/>
+      <c r="AL41" s="35"/>
+      <c r="AM41" s="36"/>
+      <c r="AN41" s="33"/>
       <c r="AO41" s="3"/>
     </row>
     <row r="42" spans="2:41" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -3745,44 +3742,44 @@
       <c r="C42" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="42" t="s">
+      <c r="D42" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="42"/>
-      <c r="L42" s="42"/>
-      <c r="M42" s="42"/>
-      <c r="N42" s="42"/>
-      <c r="O42" s="42"/>
-      <c r="P42" s="42" t="s">
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="Q42" s="42"/>
-      <c r="R42" s="42" t="s">
+      <c r="Q42" s="41"/>
+      <c r="R42" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="S42" s="42"/>
-      <c r="T42" s="42"/>
-      <c r="U42" s="42" t="s">
+      <c r="S42" s="41"/>
+      <c r="T42" s="41"/>
+      <c r="U42" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="V42" s="42"/>
-      <c r="W42" s="42"/>
-      <c r="X42" s="42"/>
-      <c r="Y42" s="42"/>
-      <c r="Z42" s="42"/>
-      <c r="AA42" s="42"/>
-      <c r="AB42" s="42"/>
-      <c r="AC42" s="42"/>
-      <c r="AD42" s="42"/>
-      <c r="AE42" s="42"/>
-      <c r="AF42" s="42"/>
-      <c r="AG42" s="42"/>
+      <c r="V42" s="41"/>
+      <c r="W42" s="41"/>
+      <c r="X42" s="41"/>
+      <c r="Y42" s="41"/>
+      <c r="Z42" s="41"/>
+      <c r="AA42" s="41"/>
+      <c r="AB42" s="41"/>
+      <c r="AC42" s="41"/>
+      <c r="AD42" s="41"/>
+      <c r="AE42" s="41"/>
+      <c r="AF42" s="41"/>
+      <c r="AG42" s="41"/>
       <c r="AH42" s="27"/>
       <c r="AI42" s="27"/>
       <c r="AJ42" s="27"/>
@@ -3796,44 +3793,44 @@
       <c r="C43" s="26">
         <v>1</v>
       </c>
-      <c r="D43" s="43" t="s">
+      <c r="D43" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="43"/>
-      <c r="L43" s="43"/>
-      <c r="M43" s="43"/>
-      <c r="N43" s="43"/>
-      <c r="O43" s="43"/>
-      <c r="P43" s="44" t="s">
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="47"/>
+      <c r="N43" s="47"/>
+      <c r="O43" s="47"/>
+      <c r="P43" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="Q43" s="44"/>
-      <c r="R43" s="44" t="s">
+      <c r="Q43" s="48"/>
+      <c r="R43" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="S43" s="44"/>
-      <c r="T43" s="44"/>
-      <c r="U43" s="43" t="s">
+      <c r="S43" s="48"/>
+      <c r="T43" s="48"/>
+      <c r="U43" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="V43" s="43"/>
-      <c r="W43" s="43"/>
-      <c r="X43" s="43"/>
-      <c r="Y43" s="43"/>
-      <c r="Z43" s="43"/>
-      <c r="AA43" s="43"/>
-      <c r="AB43" s="43"/>
-      <c r="AC43" s="43"/>
-      <c r="AD43" s="43"/>
-      <c r="AE43" s="43"/>
-      <c r="AF43" s="43"/>
-      <c r="AG43" s="43"/>
+      <c r="V43" s="47"/>
+      <c r="W43" s="47"/>
+      <c r="X43" s="47"/>
+      <c r="Y43" s="47"/>
+      <c r="Z43" s="47"/>
+      <c r="AA43" s="47"/>
+      <c r="AB43" s="47"/>
+      <c r="AC43" s="47"/>
+      <c r="AD43" s="47"/>
+      <c r="AE43" s="47"/>
+      <c r="AF43" s="47"/>
+      <c r="AG43" s="47"/>
       <c r="AH43" s="27"/>
       <c r="AI43" s="27"/>
       <c r="AJ43" s="27"/>
@@ -3847,44 +3844,44 @@
       <c r="C44" s="24">
         <v>2</v>
       </c>
-      <c r="D44" s="39" t="s">
+      <c r="D44" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="40"/>
-      <c r="N44" s="40"/>
-      <c r="O44" s="41"/>
-      <c r="P44" s="42" t="s">
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="44"/>
+      <c r="O44" s="45"/>
+      <c r="P44" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="Q44" s="42"/>
-      <c r="R44" s="42">
+      <c r="Q44" s="41"/>
+      <c r="R44" s="41">
         <v>100</v>
       </c>
-      <c r="S44" s="42"/>
-      <c r="T44" s="42"/>
-      <c r="U44" s="46" t="s">
+      <c r="S44" s="41"/>
+      <c r="T44" s="41"/>
+      <c r="U44" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="V44" s="46"/>
-      <c r="W44" s="46"/>
-      <c r="X44" s="46"/>
-      <c r="Y44" s="46"/>
-      <c r="Z44" s="46"/>
-      <c r="AA44" s="46"/>
-      <c r="AB44" s="46"/>
-      <c r="AC44" s="46"/>
-      <c r="AD44" s="46"/>
-      <c r="AE44" s="46"/>
-      <c r="AF44" s="46"/>
-      <c r="AG44" s="46"/>
+      <c r="V44" s="42"/>
+      <c r="W44" s="42"/>
+      <c r="X44" s="42"/>
+      <c r="Y44" s="42"/>
+      <c r="Z44" s="42"/>
+      <c r="AA44" s="42"/>
+      <c r="AB44" s="42"/>
+      <c r="AC44" s="42"/>
+      <c r="AD44" s="42"/>
+      <c r="AE44" s="42"/>
+      <c r="AF44" s="42"/>
+      <c r="AG44" s="42"/>
       <c r="AH44" s="27"/>
       <c r="AI44" s="27"/>
       <c r="AJ44" s="27"/>
@@ -3898,44 +3895,44 @@
       <c r="C45" s="25">
         <v>3</v>
       </c>
-      <c r="D45" s="46" t="s">
+      <c r="D45" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="46"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="46"/>
-      <c r="N45" s="46"/>
-      <c r="O45" s="46"/>
-      <c r="P45" s="47" t="s">
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="Q45" s="47"/>
-      <c r="R45" s="47">
+      <c r="Q45" s="46"/>
+      <c r="R45" s="46">
         <v>100</v>
       </c>
-      <c r="S45" s="47"/>
-      <c r="T45" s="47"/>
-      <c r="U45" s="46" t="s">
+      <c r="S45" s="46"/>
+      <c r="T45" s="46"/>
+      <c r="U45" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="V45" s="46"/>
-      <c r="W45" s="46"/>
-      <c r="X45" s="46"/>
-      <c r="Y45" s="46"/>
-      <c r="Z45" s="46"/>
-      <c r="AA45" s="46"/>
-      <c r="AB45" s="46"/>
-      <c r="AC45" s="46"/>
-      <c r="AD45" s="46"/>
-      <c r="AE45" s="46"/>
-      <c r="AF45" s="46"/>
-      <c r="AG45" s="46"/>
+      <c r="V45" s="42"/>
+      <c r="W45" s="42"/>
+      <c r="X45" s="42"/>
+      <c r="Y45" s="42"/>
+      <c r="Z45" s="42"/>
+      <c r="AA45" s="42"/>
+      <c r="AB45" s="42"/>
+      <c r="AC45" s="42"/>
+      <c r="AD45" s="42"/>
+      <c r="AE45" s="42"/>
+      <c r="AF45" s="42"/>
+      <c r="AG45" s="42"/>
       <c r="AH45" s="27"/>
       <c r="AI45" s="27"/>
       <c r="AJ45" s="27"/>
@@ -3949,44 +3946,44 @@
       <c r="C46" s="24">
         <v>4</v>
       </c>
-      <c r="D46" s="45" t="s">
+      <c r="D46" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E46" s="45"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="45"/>
-      <c r="J46" s="45"/>
-      <c r="K46" s="45"/>
-      <c r="L46" s="45"/>
-      <c r="M46" s="45"/>
-      <c r="N46" s="45"/>
-      <c r="O46" s="45"/>
-      <c r="P46" s="42" t="s">
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="40"/>
+      <c r="O46" s="40"/>
+      <c r="P46" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="Q46" s="42"/>
-      <c r="R46" s="42" t="s">
+      <c r="Q46" s="41"/>
+      <c r="R46" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="S46" s="42"/>
-      <c r="T46" s="42"/>
-      <c r="U46" s="45" t="s">
+      <c r="S46" s="41"/>
+      <c r="T46" s="41"/>
+      <c r="U46" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="V46" s="45"/>
-      <c r="W46" s="45"/>
-      <c r="X46" s="45"/>
-      <c r="Y46" s="45"/>
-      <c r="Z46" s="45"/>
-      <c r="AA46" s="45"/>
-      <c r="AB46" s="45"/>
-      <c r="AC46" s="45"/>
-      <c r="AD46" s="45"/>
-      <c r="AE46" s="45"/>
-      <c r="AF46" s="45"/>
-      <c r="AG46" s="45"/>
+      <c r="V46" s="40"/>
+      <c r="W46" s="40"/>
+      <c r="X46" s="40"/>
+      <c r="Y46" s="40"/>
+      <c r="Z46" s="40"/>
+      <c r="AA46" s="40"/>
+      <c r="AB46" s="40"/>
+      <c r="AC46" s="40"/>
+      <c r="AD46" s="40"/>
+      <c r="AE46" s="40"/>
+      <c r="AF46" s="40"/>
+      <c r="AG46" s="40"/>
       <c r="AH46" s="27"/>
       <c r="AI46" s="27"/>
       <c r="AJ46" s="27"/>
@@ -4001,44 +3998,44 @@
         <f t="shared" ref="C47" si="0">C46+1</f>
         <v>5</v>
       </c>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="45"/>
-      <c r="J47" s="45"/>
-      <c r="K47" s="45"/>
-      <c r="L47" s="45"/>
-      <c r="M47" s="45"/>
-      <c r="N47" s="45"/>
-      <c r="O47" s="45"/>
-      <c r="P47" s="42" t="s">
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="40"/>
+      <c r="P47" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="Q47" s="42"/>
-      <c r="R47" s="42">
+      <c r="Q47" s="41"/>
+      <c r="R47" s="41">
         <v>8</v>
       </c>
-      <c r="S47" s="42"/>
-      <c r="T47" s="42"/>
-      <c r="U47" s="45" t="s">
+      <c r="S47" s="41"/>
+      <c r="T47" s="41"/>
+      <c r="U47" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="V47" s="45"/>
-      <c r="W47" s="45"/>
-      <c r="X47" s="45"/>
-      <c r="Y47" s="45"/>
-      <c r="Z47" s="45"/>
-      <c r="AA47" s="45"/>
-      <c r="AB47" s="45"/>
-      <c r="AC47" s="45"/>
-      <c r="AD47" s="45"/>
-      <c r="AE47" s="45"/>
-      <c r="AF47" s="45"/>
-      <c r="AG47" s="45"/>
+      <c r="V47" s="40"/>
+      <c r="W47" s="40"/>
+      <c r="X47" s="40"/>
+      <c r="Y47" s="40"/>
+      <c r="Z47" s="40"/>
+      <c r="AA47" s="40"/>
+      <c r="AB47" s="40"/>
+      <c r="AC47" s="40"/>
+      <c r="AD47" s="40"/>
+      <c r="AE47" s="40"/>
+      <c r="AF47" s="40"/>
+      <c r="AG47" s="40"/>
       <c r="AH47" s="27"/>
       <c r="AI47" s="27"/>
       <c r="AJ47" s="27"/>
@@ -4057,6 +4054,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="K25:AM25"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="K28:O28"/>
+    <mergeCell ref="E5:M5"/>
+    <mergeCell ref="N5:AK5"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="S12:W12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="AB12:AF12"/>
+    <mergeCell ref="AI12:AN12"/>
+    <mergeCell ref="D46:O46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="R46:T46"/>
+    <mergeCell ref="U46:AG46"/>
+    <mergeCell ref="D42:O42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="R42:T42"/>
+    <mergeCell ref="U42:AG42"/>
+    <mergeCell ref="D43:O43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="R43:T43"/>
+    <mergeCell ref="U43:AG43"/>
     <mergeCell ref="AB28:AF28"/>
     <mergeCell ref="AI28:AN28"/>
     <mergeCell ref="K41:AM41"/>
@@ -4073,28 +4092,6 @@
     <mergeCell ref="P45:Q45"/>
     <mergeCell ref="R45:T45"/>
     <mergeCell ref="U45:AG45"/>
-    <mergeCell ref="D46:O46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="R46:T46"/>
-    <mergeCell ref="U46:AG46"/>
-    <mergeCell ref="D42:O42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="R42:T42"/>
-    <mergeCell ref="U42:AG42"/>
-    <mergeCell ref="D43:O43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="R43:T43"/>
-    <mergeCell ref="U43:AG43"/>
-    <mergeCell ref="E5:M5"/>
-    <mergeCell ref="N5:AK5"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="S12:W12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="AB12:AF12"/>
-    <mergeCell ref="AI12:AN12"/>
-    <mergeCell ref="K25:AM25"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="K28:O28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.62992125984251968" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.27559055118110237"/>

--- a/(敬老)詳細設計書.xlsx
+++ b/(敬老)詳細設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\個人開発\③敬老祝いアンケート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093DE2CF-6B00-497C-9A31-219C4095B51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A60A71-FCBB-45A2-90CD-AB79F7CF7F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BEED9DE4-747A-4FBB-A3BA-7674A3D7145D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{BEED9DE4-747A-4FBB-A3BA-7674A3D7145D}"/>
   </bookViews>
   <sheets>
     <sheet name="敬老" sheetId="2" r:id="rId1"/>
@@ -179,32 +179,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>シリアルナンバーの有効性を照会し、有効であれば投票ページに遷移。</t>
-    <rPh sb="17" eb="19">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>トウヒョウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>投票したいアイドルの投票数を＋１する</t>
-    <rPh sb="0" eb="2">
-      <t>トウヒョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウヒョウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アンケートの回答機能</t>
     <rPh sb="6" eb="10">
       <t>カイトウキノウ</t>
@@ -222,13 +196,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>回答者</t>
-    <rPh sb="0" eb="3">
-      <t>カイトウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>回答シート</t>
     <rPh sb="0" eb="2">
       <t>カイトウ</t>
@@ -281,6 +248,72 @@
   </si>
   <si>
     <t>インプットボックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォームの各項目に回答し、「送信」ボタンを押下すると別シートに回答が記録される</t>
+    <rPh sb="5" eb="8">
+      <t>カクコウモク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「集計」ボタンを押下すると回答が記録される「集計シート」「日別シート」が閲覧可能になる</t>
+    <rPh sb="1" eb="3">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答者</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -534,7 +567,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -661,6 +694,12 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -676,11 +715,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -845,8 +884,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4064000" y="4152900"/>
-          <a:ext cx="3178175" cy="0"/>
+          <a:off x="4121150" y="4495800"/>
+          <a:ext cx="4089400" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1078,8 +1117,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -1096,8 +1135,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4352925" y="4391025"/>
-          <a:ext cx="1619250" cy="0"/>
+          <a:off x="4152900" y="4152900"/>
+          <a:ext cx="1266825" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1155,8 +1194,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4225925" y="3365500"/>
-          <a:ext cx="1362075" cy="466727"/>
+          <a:off x="4286250" y="3679825"/>
+          <a:ext cx="1384300" cy="485777"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1782,13 +1821,84 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BFFDE64-645F-487B-A15A-7E99ECC69811}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5438775" y="3476625"/>
+          <a:ext cx="869950" cy="739775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" kern="1200"/>
+            <a:t>「回答ありがとうございました！」</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1826,7 +1936,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1932,7 +2042,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2074,7 +2184,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2085,27 +2195,29 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AO48"/>
+  <dimension ref="B1:AN48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AU34" sqref="AU34"/>
+      <selection activeCell="AA54" sqref="AA54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="0.83203125" customWidth="1"/>
-    <col min="3" max="3" width="2.58203125" customWidth="1"/>
+    <col min="1" max="2" width="0.875" customWidth="1"/>
+    <col min="3" max="3" width="2.625" customWidth="1"/>
     <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="15" width="2.58203125" customWidth="1"/>
-    <col min="16" max="16" width="3.33203125" customWidth="1"/>
-    <col min="17" max="18" width="2.58203125" customWidth="1"/>
+    <col min="5" max="15" width="2.625" customWidth="1"/>
+    <col min="16" max="16" width="3.375" customWidth="1"/>
+    <col min="17" max="18" width="2.625" customWidth="1"/>
     <col min="19" max="19" width="2.75" customWidth="1"/>
-    <col min="20" max="40" width="2.58203125" customWidth="1"/>
-    <col min="41" max="47" width="1.58203125" customWidth="1"/>
+    <col min="20" max="36" width="2.625" customWidth="1"/>
+    <col min="37" max="37" width="13.875" customWidth="1"/>
+    <col min="38" max="39" width="2.625" customWidth="1"/>
+    <col min="40" max="46" width="1.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:40" ht="6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="2" spans="2:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:40" ht="6" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B2" s="5"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
@@ -2145,12 +2257,11 @@
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
-      <c r="AM2" s="8"/>
-      <c r="AN2" s="10" t="s">
+      <c r="AM2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="1"/>
       <c r="C3" s="11" t="s">
         <v>5</v>
@@ -2190,10 +2301,9 @@
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
-      <c r="AM3" s="11"/>
-      <c r="AN3" s="12"/>
-    </row>
-    <row r="4" spans="2:40" ht="10" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AM3" s="12"/>
+    </row>
+    <row r="4" spans="2:40" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="2"/>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
@@ -2231,10 +2341,9 @@
       <c r="AJ4" s="27"/>
       <c r="AK4" s="27"/>
       <c r="AL4" s="27"/>
-      <c r="AM4" s="27"/>
-      <c r="AN4" s="13"/>
-    </row>
-    <row r="5" spans="2:40" x14ac:dyDescent="0.55000000000000004">
+      <c r="AM4" s="13"/>
+    </row>
+    <row r="5" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B5" s="2"/>
       <c r="C5" s="27"/>
       <c r="D5" s="14" t="s">
@@ -2278,17 +2387,16 @@
       <c r="AJ5" s="35"/>
       <c r="AK5" s="36"/>
       <c r="AL5" s="27"/>
-      <c r="AM5" s="27"/>
-      <c r="AN5" s="13"/>
-    </row>
-    <row r="6" spans="2:40" x14ac:dyDescent="0.55000000000000004">
+      <c r="AM5" s="13"/>
+    </row>
+    <row r="6" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B6" s="2"/>
       <c r="C6" s="27"/>
       <c r="D6" s="14">
         <v>1</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="27"/>
       <c r="G6" s="27"/>
@@ -2299,7 +2407,7 @@
       <c r="L6" s="27"/>
       <c r="M6" s="9"/>
       <c r="N6" s="27" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="O6" s="27"/>
       <c r="P6" s="27"/>
@@ -2325,17 +2433,16 @@
       <c r="AJ6" s="27"/>
       <c r="AK6" s="9"/>
       <c r="AL6" s="27"/>
-      <c r="AM6" s="27"/>
-      <c r="AN6" s="13"/>
-    </row>
-    <row r="7" spans="2:40" x14ac:dyDescent="0.55000000000000004">
+      <c r="AM6" s="13"/>
+    </row>
+    <row r="7" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B7" s="2"/>
       <c r="C7" s="27"/>
       <c r="D7" s="14">
         <v>2</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -2346,7 +2453,7 @@
       <c r="L7" s="8"/>
       <c r="M7" s="9"/>
       <c r="N7" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
@@ -2372,10 +2479,9 @@
       <c r="AJ7" s="8"/>
       <c r="AK7" s="9"/>
       <c r="AL7" s="27"/>
-      <c r="AM7" s="27"/>
-      <c r="AN7" s="13"/>
-    </row>
-    <row r="8" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AM7" s="13"/>
+    </row>
+    <row r="8" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="4"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
@@ -2413,10 +2519,9 @@
       <c r="AJ8" s="15"/>
       <c r="AK8" s="15"/>
       <c r="AL8" s="15"/>
-      <c r="AM8" s="15"/>
-      <c r="AN8" s="16"/>
-    </row>
-    <row r="9" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AM8" s="16"/>
+    </row>
+    <row r="9" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="11" t="s">
         <v>6</v>
@@ -2456,13 +2561,12 @@
       <c r="AJ9" s="11"/>
       <c r="AK9" s="11"/>
       <c r="AL9" s="11"/>
-      <c r="AM9" s="11"/>
-      <c r="AN9" s="12"/>
-    </row>
-    <row r="10" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AM9" s="12"/>
+    </row>
+    <row r="10" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
       <c r="C10" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -2499,10 +2603,9 @@
       <c r="AJ10" s="11"/>
       <c r="AK10" s="11"/>
       <c r="AL10" s="11"/>
-      <c r="AM10" s="11"/>
-      <c r="AN10" s="12"/>
-    </row>
-    <row r="11" spans="2:40" ht="10" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AM10" s="12"/>
+    </row>
+    <row r="11" spans="2:40" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="2"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -2540,20 +2643,19 @@
       <c r="AJ11" s="27"/>
       <c r="AK11" s="27"/>
       <c r="AL11" s="27"/>
-      <c r="AM11" s="27"/>
-      <c r="AN11" s="13"/>
-    </row>
-    <row r="12" spans="2:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AM11" s="13"/>
+    </row>
+    <row r="12" spans="2:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="2"/>
       <c r="F12" s="34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G12" s="35"/>
       <c r="H12" s="36"/>
       <c r="I12" s="27"/>
       <c r="J12" s="28"/>
       <c r="K12" s="37" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L12" s="38"/>
       <c r="M12" s="38"/>
@@ -2563,7 +2665,7 @@
       <c r="Q12" s="28"/>
       <c r="R12" s="28"/>
       <c r="S12" s="37" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="T12" s="38"/>
       <c r="U12" s="38"/>
@@ -2574,7 +2676,7 @@
       <c r="Z12" s="27"/>
       <c r="AA12" s="27"/>
       <c r="AB12" s="34" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AC12" s="35"/>
       <c r="AD12" s="35"/>
@@ -2582,15 +2684,15 @@
       <c r="AF12" s="36"/>
       <c r="AG12" s="27"/>
       <c r="AI12" s="34" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AJ12" s="35"/>
       <c r="AK12" s="35"/>
       <c r="AL12" s="35"/>
-      <c r="AM12" s="35"/>
-      <c r="AN12" s="36"/>
-    </row>
-    <row r="13" spans="2:40" x14ac:dyDescent="0.55000000000000004">
+      <c r="AM12" s="49"/>
+      <c r="AN12" s="32"/>
+    </row>
+    <row r="13" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B13" s="2"/>
       <c r="F13" s="27"/>
       <c r="G13" s="17"/>
@@ -2625,10 +2727,9 @@
       <c r="AJ13" s="29"/>
       <c r="AK13" s="19"/>
       <c r="AL13" s="29"/>
-      <c r="AM13" s="27"/>
-      <c r="AN13" s="21"/>
-    </row>
-    <row r="14" spans="2:40" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AM13" s="21"/>
+    </row>
+    <row r="14" spans="2:40" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="2"/>
       <c r="F14" s="27"/>
       <c r="G14" s="17"/>
@@ -2663,10 +2764,9 @@
       <c r="AJ14" s="27"/>
       <c r="AK14" s="13"/>
       <c r="AL14" s="27"/>
-      <c r="AM14" s="27"/>
-      <c r="AN14" s="22"/>
-    </row>
-    <row r="15" spans="2:40" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AM14" s="22"/>
+    </row>
+    <row r="15" spans="2:40" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="2"/>
       <c r="F15" s="27"/>
       <c r="G15" s="18"/>
@@ -2701,10 +2801,9 @@
       <c r="AJ15" s="27"/>
       <c r="AK15" s="13"/>
       <c r="AL15" s="27"/>
-      <c r="AM15" s="27"/>
-      <c r="AN15" s="22"/>
-    </row>
-    <row r="16" spans="2:40" x14ac:dyDescent="0.55000000000000004">
+      <c r="AM15" s="22"/>
+    </row>
+    <row r="16" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B16" s="2"/>
       <c r="F16" s="27"/>
       <c r="G16" s="18"/>
@@ -2739,10 +2838,9 @@
       <c r="AJ16" s="27"/>
       <c r="AK16" s="13"/>
       <c r="AL16" s="27"/>
-      <c r="AM16" s="27"/>
-      <c r="AN16" s="21"/>
-    </row>
-    <row r="17" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+      <c r="AM16" s="21"/>
+    </row>
+    <row r="17" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B17" s="2"/>
       <c r="F17" s="27"/>
       <c r="G17" s="17"/>
@@ -2777,11 +2875,10 @@
       <c r="AJ17" s="29"/>
       <c r="AK17" s="13"/>
       <c r="AL17" s="27"/>
-      <c r="AM17" s="27"/>
-      <c r="AN17" s="22"/>
-      <c r="AO17" s="3"/>
-    </row>
-    <row r="18" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+      <c r="AM17" s="22"/>
+      <c r="AN17" s="3"/>
+    </row>
+    <row r="18" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B18" s="2"/>
       <c r="F18" s="27"/>
       <c r="G18" s="17"/>
@@ -2816,11 +2913,10 @@
       <c r="AJ18" s="27"/>
       <c r="AK18" s="23"/>
       <c r="AL18" s="27"/>
-      <c r="AM18" s="27"/>
-      <c r="AN18" s="22"/>
-      <c r="AO18" s="3"/>
-    </row>
-    <row r="19" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+      <c r="AM18" s="22"/>
+      <c r="AN18" s="3"/>
+    </row>
+    <row r="19" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B19" s="2"/>
       <c r="F19" s="27"/>
       <c r="G19" s="17"/>
@@ -2855,11 +2951,10 @@
       <c r="AJ19" s="27"/>
       <c r="AK19" s="23"/>
       <c r="AL19" s="27"/>
-      <c r="AM19" s="27"/>
-      <c r="AN19" s="22"/>
-      <c r="AO19" s="3"/>
-    </row>
-    <row r="20" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+      <c r="AM19" s="22"/>
+      <c r="AN19" s="3"/>
+    </row>
+    <row r="20" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B20" s="2"/>
       <c r="F20" s="27"/>
       <c r="G20" s="17"/>
@@ -2894,11 +2989,10 @@
       <c r="AJ20" s="27"/>
       <c r="AK20" s="23"/>
       <c r="AL20" s="27"/>
-      <c r="AM20" s="27"/>
-      <c r="AN20" s="22"/>
-      <c r="AO20" s="3"/>
-    </row>
-    <row r="21" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+      <c r="AM20" s="22"/>
+      <c r="AN20" s="3"/>
+    </row>
+    <row r="21" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B21" s="2"/>
       <c r="F21" s="27"/>
       <c r="G21" s="17"/>
@@ -2933,11 +3027,10 @@
       <c r="AJ21" s="27"/>
       <c r="AK21" s="13"/>
       <c r="AL21" s="27"/>
-      <c r="AM21" s="27"/>
-      <c r="AN21" s="22"/>
-      <c r="AO21" s="3"/>
-    </row>
-    <row r="22" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+      <c r="AM21" s="22"/>
+      <c r="AN21" s="3"/>
+    </row>
+    <row r="22" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B22" s="2"/>
       <c r="F22" s="27"/>
       <c r="G22" s="17"/>
@@ -2972,11 +3065,10 @@
       <c r="AJ22" s="27"/>
       <c r="AK22" s="13"/>
       <c r="AL22" s="27"/>
-      <c r="AM22" s="27"/>
-      <c r="AN22" s="22"/>
-      <c r="AO22" s="3"/>
-    </row>
-    <row r="23" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+      <c r="AM22" s="22"/>
+      <c r="AN22" s="3"/>
+    </row>
+    <row r="23" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B23" s="2"/>
       <c r="F23" s="27"/>
       <c r="G23" s="17"/>
@@ -3011,11 +3103,10 @@
       <c r="AJ23" s="27"/>
       <c r="AK23" s="13"/>
       <c r="AL23" s="27"/>
-      <c r="AM23" s="27"/>
-      <c r="AN23" s="22"/>
-      <c r="AO23" s="3"/>
-    </row>
-    <row r="24" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+      <c r="AM23" s="22"/>
+      <c r="AN23" s="3"/>
+    </row>
+    <row r="24" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B24" s="2"/>
       <c r="F24" s="27"/>
       <c r="G24" s="17"/>
@@ -3050,11 +3141,10 @@
       <c r="AJ24" s="27"/>
       <c r="AK24" s="13"/>
       <c r="AL24" s="27"/>
-      <c r="AM24" s="27"/>
-      <c r="AN24" s="22"/>
-      <c r="AO24" s="3"/>
-    </row>
-    <row r="25" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+      <c r="AM24" s="22"/>
+      <c r="AN24" s="3"/>
+    </row>
+    <row r="25" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B25" s="4"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -3094,14 +3184,13 @@
       <c r="AJ25" s="35"/>
       <c r="AK25" s="35"/>
       <c r="AL25" s="35"/>
-      <c r="AM25" s="36"/>
-      <c r="AN25" s="33"/>
-      <c r="AO25" s="3"/>
-    </row>
-    <row r="26" spans="2:41" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AM25" s="33"/>
+      <c r="AN25" s="3"/>
+    </row>
+    <row r="26" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="1"/>
       <c r="C26" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
@@ -3138,10 +3227,9 @@
       <c r="AJ26" s="11"/>
       <c r="AK26" s="11"/>
       <c r="AL26" s="11"/>
-      <c r="AM26" s="11"/>
-      <c r="AN26" s="12"/>
-    </row>
-    <row r="27" spans="2:41" ht="10" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AM26" s="12"/>
+    </row>
+    <row r="27" spans="2:40" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="2"/>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
@@ -3179,20 +3267,19 @@
       <c r="AJ27" s="27"/>
       <c r="AK27" s="27"/>
       <c r="AL27" s="27"/>
-      <c r="AM27" s="27"/>
-      <c r="AN27" s="13"/>
-    </row>
-    <row r="28" spans="2:41" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AM27" s="13"/>
+    </row>
+    <row r="28" spans="2:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="2"/>
       <c r="F28" s="34" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G28" s="35"/>
       <c r="H28" s="36"/>
       <c r="I28" s="27"/>
       <c r="J28" s="28"/>
       <c r="K28" s="37" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L28" s="38"/>
       <c r="M28" s="38"/>
@@ -3202,7 +3289,7 @@
       <c r="Q28" s="28"/>
       <c r="R28" s="28"/>
       <c r="S28" s="37" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T28" s="38"/>
       <c r="U28" s="38"/>
@@ -3213,7 +3300,7 @@
       <c r="Z28" s="27"/>
       <c r="AA28" s="27"/>
       <c r="AB28" s="34" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AC28" s="35"/>
       <c r="AD28" s="35"/>
@@ -3221,15 +3308,14 @@
       <c r="AF28" s="36"/>
       <c r="AG28" s="27"/>
       <c r="AI28" s="34" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AJ28" s="35"/>
       <c r="AK28" s="35"/>
-      <c r="AL28" s="35"/>
-      <c r="AM28" s="35"/>
-      <c r="AN28" s="36"/>
-    </row>
-    <row r="29" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+      <c r="AL28" s="36"/>
+      <c r="AM28" s="50"/>
+    </row>
+    <row r="29" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B29" s="2"/>
       <c r="F29" s="27"/>
       <c r="G29" s="17"/>
@@ -3264,10 +3350,9 @@
       <c r="AJ29" s="29"/>
       <c r="AK29" s="19"/>
       <c r="AL29" s="29"/>
-      <c r="AM29" s="27"/>
-      <c r="AN29" s="21"/>
-    </row>
-    <row r="30" spans="2:41" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AM29" s="21"/>
+    </row>
+    <row r="30" spans="2:40" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="2"/>
       <c r="F30" s="27"/>
       <c r="G30" s="17"/>
@@ -3302,10 +3387,9 @@
       <c r="AJ30" s="27"/>
       <c r="AK30" s="13"/>
       <c r="AL30" s="27"/>
-      <c r="AM30" s="27"/>
-      <c r="AN30" s="22"/>
-    </row>
-    <row r="31" spans="2:41" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AM30" s="22"/>
+    </row>
+    <row r="31" spans="2:40" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="2"/>
       <c r="F31" s="27"/>
       <c r="G31" s="18"/>
@@ -3340,10 +3424,9 @@
       <c r="AJ31" s="27"/>
       <c r="AK31" s="13"/>
       <c r="AL31" s="27"/>
-      <c r="AM31" s="27"/>
-      <c r="AN31" s="22"/>
-    </row>
-    <row r="32" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+      <c r="AM31" s="22"/>
+    </row>
+    <row r="32" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B32" s="2"/>
       <c r="F32" s="27"/>
       <c r="G32" s="18"/>
@@ -3378,10 +3461,9 @@
       <c r="AJ32" s="27"/>
       <c r="AK32" s="13"/>
       <c r="AL32" s="27"/>
-      <c r="AM32" s="27"/>
-      <c r="AN32" s="21"/>
-    </row>
-    <row r="33" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+      <c r="AM32" s="21"/>
+    </row>
+    <row r="33" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B33" s="2"/>
       <c r="F33" s="27"/>
       <c r="G33" s="17"/>
@@ -3416,11 +3498,10 @@
       <c r="AJ33" s="29"/>
       <c r="AK33" s="13"/>
       <c r="AL33" s="27"/>
-      <c r="AM33" s="27"/>
-      <c r="AN33" s="22"/>
-      <c r="AO33" s="3"/>
-    </row>
-    <row r="34" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+      <c r="AM33" s="22"/>
+      <c r="AN33" s="3"/>
+    </row>
+    <row r="34" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B34" s="2"/>
       <c r="F34" s="27"/>
       <c r="G34" s="17"/>
@@ -3455,11 +3536,10 @@
       <c r="AJ34" s="27"/>
       <c r="AK34" s="23"/>
       <c r="AL34" s="27"/>
-      <c r="AM34" s="27"/>
-      <c r="AN34" s="22"/>
-      <c r="AO34" s="3"/>
-    </row>
-    <row r="35" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+      <c r="AM34" s="22"/>
+      <c r="AN34" s="3"/>
+    </row>
+    <row r="35" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B35" s="2"/>
       <c r="F35" s="27"/>
       <c r="G35" s="17"/>
@@ -3494,11 +3574,10 @@
       <c r="AJ35" s="27"/>
       <c r="AK35" s="23"/>
       <c r="AL35" s="27"/>
-      <c r="AM35" s="27"/>
-      <c r="AN35" s="22"/>
-      <c r="AO35" s="3"/>
-    </row>
-    <row r="36" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+      <c r="AM35" s="22"/>
+      <c r="AN35" s="3"/>
+    </row>
+    <row r="36" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B36" s="2"/>
       <c r="F36" s="27"/>
       <c r="G36" s="17"/>
@@ -3533,11 +3612,10 @@
       <c r="AJ36" s="27"/>
       <c r="AK36" s="23"/>
       <c r="AL36" s="27"/>
-      <c r="AM36" s="27"/>
-      <c r="AN36" s="22"/>
-      <c r="AO36" s="3"/>
-    </row>
-    <row r="37" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+      <c r="AM36" s="22"/>
+      <c r="AN36" s="3"/>
+    </row>
+    <row r="37" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B37" s="2"/>
       <c r="F37" s="27"/>
       <c r="G37" s="17"/>
@@ -3572,11 +3650,10 @@
       <c r="AJ37" s="27"/>
       <c r="AK37" s="13"/>
       <c r="AL37" s="27"/>
-      <c r="AM37" s="27"/>
-      <c r="AN37" s="22"/>
-      <c r="AO37" s="3"/>
-    </row>
-    <row r="38" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+      <c r="AM37" s="22"/>
+      <c r="AN37" s="3"/>
+    </row>
+    <row r="38" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B38" s="2"/>
       <c r="F38" s="27"/>
       <c r="G38" s="17"/>
@@ -3611,11 +3688,10 @@
       <c r="AJ38" s="27"/>
       <c r="AK38" s="13"/>
       <c r="AL38" s="27"/>
-      <c r="AM38" s="27"/>
-      <c r="AN38" s="22"/>
-      <c r="AO38" s="3"/>
-    </row>
-    <row r="39" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+      <c r="AM38" s="22"/>
+      <c r="AN38" s="3"/>
+    </row>
+    <row r="39" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B39" s="2"/>
       <c r="F39" s="27"/>
       <c r="G39" s="17"/>
@@ -3650,11 +3726,10 @@
       <c r="AJ39" s="27"/>
       <c r="AK39" s="13"/>
       <c r="AL39" s="27"/>
-      <c r="AM39" s="27"/>
-      <c r="AN39" s="22"/>
-      <c r="AO39" s="3"/>
-    </row>
-    <row r="40" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+      <c r="AM39" s="22"/>
+      <c r="AN39" s="3"/>
+    </row>
+    <row r="40" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B40" s="2"/>
       <c r="F40" s="27"/>
       <c r="G40" s="17"/>
@@ -3689,11 +3764,10 @@
       <c r="AJ40" s="27"/>
       <c r="AK40" s="13"/>
       <c r="AL40" s="27"/>
-      <c r="AM40" s="27"/>
-      <c r="AN40" s="22"/>
-      <c r="AO40" s="3"/>
-    </row>
-    <row r="41" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+      <c r="AM40" s="22"/>
+      <c r="AN40" s="3"/>
+    </row>
+    <row r="41" spans="2:40" x14ac:dyDescent="0.4">
       <c r="B41" s="4"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -3733,11 +3807,10 @@
       <c r="AJ41" s="35"/>
       <c r="AK41" s="35"/>
       <c r="AL41" s="35"/>
-      <c r="AM41" s="36"/>
-      <c r="AN41" s="33"/>
-      <c r="AO41" s="3"/>
-    </row>
-    <row r="42" spans="2:41" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AM41" s="33"/>
+      <c r="AN41" s="3"/>
+    </row>
+    <row r="42" spans="2:40" hidden="1" x14ac:dyDescent="0.4">
       <c r="B42" s="32"/>
       <c r="C42" s="24" t="s">
         <v>7</v>
@@ -3785,79 +3858,77 @@
       <c r="AJ42" s="27"/>
       <c r="AK42" s="27"/>
       <c r="AL42" s="27"/>
-      <c r="AM42" s="27"/>
-      <c r="AN42" s="13"/>
-    </row>
-    <row r="43" spans="2:41" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AM42" s="13"/>
+    </row>
+    <row r="43" spans="2:40" hidden="1" x14ac:dyDescent="0.4">
       <c r="B43" s="32"/>
       <c r="C43" s="26">
         <v>1</v>
       </c>
-      <c r="D43" s="47" t="s">
+      <c r="D43" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="47"/>
-      <c r="K43" s="47"/>
-      <c r="L43" s="47"/>
-      <c r="M43" s="47"/>
-      <c r="N43" s="47"/>
-      <c r="O43" s="47"/>
-      <c r="P43" s="48" t="s">
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="Q43" s="48"/>
-      <c r="R43" s="48" t="s">
+      <c r="Q43" s="43"/>
+      <c r="R43" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="S43" s="48"/>
-      <c r="T43" s="48"/>
-      <c r="U43" s="47" t="s">
+      <c r="S43" s="43"/>
+      <c r="T43" s="43"/>
+      <c r="U43" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="V43" s="47"/>
-      <c r="W43" s="47"/>
-      <c r="X43" s="47"/>
-      <c r="Y43" s="47"/>
-      <c r="Z43" s="47"/>
-      <c r="AA43" s="47"/>
-      <c r="AB43" s="47"/>
-      <c r="AC43" s="47"/>
-      <c r="AD43" s="47"/>
-      <c r="AE43" s="47"/>
-      <c r="AF43" s="47"/>
-      <c r="AG43" s="47"/>
+      <c r="V43" s="42"/>
+      <c r="W43" s="42"/>
+      <c r="X43" s="42"/>
+      <c r="Y43" s="42"/>
+      <c r="Z43" s="42"/>
+      <c r="AA43" s="42"/>
+      <c r="AB43" s="42"/>
+      <c r="AC43" s="42"/>
+      <c r="AD43" s="42"/>
+      <c r="AE43" s="42"/>
+      <c r="AF43" s="42"/>
+      <c r="AG43" s="42"/>
       <c r="AH43" s="27"/>
       <c r="AI43" s="27"/>
       <c r="AJ43" s="27"/>
       <c r="AK43" s="27"/>
       <c r="AL43" s="27"/>
-      <c r="AM43" s="27"/>
-      <c r="AN43" s="13"/>
-    </row>
-    <row r="44" spans="2:41" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AM43" s="13"/>
+    </row>
+    <row r="44" spans="2:40" hidden="1" x14ac:dyDescent="0.4">
       <c r="B44" s="32"/>
       <c r="C44" s="24">
         <v>2</v>
       </c>
-      <c r="D44" s="43" t="s">
+      <c r="D44" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="44"/>
-      <c r="L44" s="44"/>
-      <c r="M44" s="44"/>
-      <c r="N44" s="44"/>
-      <c r="O44" s="45"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="46"/>
+      <c r="N44" s="46"/>
+      <c r="O44" s="47"/>
       <c r="P44" s="41" t="s">
         <v>14</v>
       </c>
@@ -3867,81 +3938,79 @@
       </c>
       <c r="S44" s="41"/>
       <c r="T44" s="41"/>
-      <c r="U44" s="42" t="s">
+      <c r="U44" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="V44" s="42"/>
-      <c r="W44" s="42"/>
-      <c r="X44" s="42"/>
-      <c r="Y44" s="42"/>
-      <c r="Z44" s="42"/>
-      <c r="AA44" s="42"/>
-      <c r="AB44" s="42"/>
-      <c r="AC44" s="42"/>
-      <c r="AD44" s="42"/>
-      <c r="AE44" s="42"/>
-      <c r="AF44" s="42"/>
-      <c r="AG44" s="42"/>
+      <c r="V44" s="44"/>
+      <c r="W44" s="44"/>
+      <c r="X44" s="44"/>
+      <c r="Y44" s="44"/>
+      <c r="Z44" s="44"/>
+      <c r="AA44" s="44"/>
+      <c r="AB44" s="44"/>
+      <c r="AC44" s="44"/>
+      <c r="AD44" s="44"/>
+      <c r="AE44" s="44"/>
+      <c r="AF44" s="44"/>
+      <c r="AG44" s="44"/>
       <c r="AH44" s="27"/>
       <c r="AI44" s="27"/>
       <c r="AJ44" s="27"/>
       <c r="AK44" s="27"/>
       <c r="AL44" s="27"/>
-      <c r="AM44" s="27"/>
-      <c r="AN44" s="13"/>
-    </row>
-    <row r="45" spans="2:41" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AM44" s="13"/>
+    </row>
+    <row r="45" spans="2:40" hidden="1" x14ac:dyDescent="0.4">
       <c r="B45" s="32"/>
       <c r="C45" s="25">
         <v>3</v>
       </c>
-      <c r="D45" s="42" t="s">
+      <c r="D45" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="42"/>
-      <c r="L45" s="42"/>
-      <c r="M45" s="42"/>
-      <c r="N45" s="42"/>
-      <c r="O45" s="42"/>
-      <c r="P45" s="46" t="s">
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="44"/>
+      <c r="O45" s="44"/>
+      <c r="P45" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="Q45" s="46"/>
-      <c r="R45" s="46">
+      <c r="Q45" s="48"/>
+      <c r="R45" s="48">
         <v>100</v>
       </c>
-      <c r="S45" s="46"/>
-      <c r="T45" s="46"/>
-      <c r="U45" s="42" t="s">
+      <c r="S45" s="48"/>
+      <c r="T45" s="48"/>
+      <c r="U45" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="V45" s="42"/>
-      <c r="W45" s="42"/>
-      <c r="X45" s="42"/>
-      <c r="Y45" s="42"/>
-      <c r="Z45" s="42"/>
-      <c r="AA45" s="42"/>
-      <c r="AB45" s="42"/>
-      <c r="AC45" s="42"/>
-      <c r="AD45" s="42"/>
-      <c r="AE45" s="42"/>
-      <c r="AF45" s="42"/>
-      <c r="AG45" s="42"/>
+      <c r="V45" s="44"/>
+      <c r="W45" s="44"/>
+      <c r="X45" s="44"/>
+      <c r="Y45" s="44"/>
+      <c r="Z45" s="44"/>
+      <c r="AA45" s="44"/>
+      <c r="AB45" s="44"/>
+      <c r="AC45" s="44"/>
+      <c r="AD45" s="44"/>
+      <c r="AE45" s="44"/>
+      <c r="AF45" s="44"/>
+      <c r="AG45" s="44"/>
       <c r="AH45" s="27"/>
       <c r="AI45" s="27"/>
       <c r="AJ45" s="27"/>
       <c r="AK45" s="27"/>
       <c r="AL45" s="27"/>
-      <c r="AM45" s="27"/>
-      <c r="AN45" s="13"/>
-    </row>
-    <row r="46" spans="2:41" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AM45" s="13"/>
+    </row>
+    <row r="46" spans="2:40" hidden="1" x14ac:dyDescent="0.4">
       <c r="B46" s="32"/>
       <c r="C46" s="24">
         <v>4</v>
@@ -3989,10 +4058,9 @@
       <c r="AJ46" s="27"/>
       <c r="AK46" s="27"/>
       <c r="AL46" s="27"/>
-      <c r="AM46" s="27"/>
-      <c r="AN46" s="13"/>
-    </row>
-    <row r="47" spans="2:41" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AM46" s="13"/>
+    </row>
+    <row r="47" spans="2:40" hidden="1" x14ac:dyDescent="0.4">
       <c r="B47" s="32"/>
       <c r="C47" s="24">
         <f t="shared" ref="C47" si="0">C46+1</f>
@@ -4041,44 +4109,18 @@
       <c r="AJ47" s="27"/>
       <c r="AK47" s="27"/>
       <c r="AL47" s="27"/>
-      <c r="AM47" s="27"/>
-      <c r="AN47" s="13"/>
-    </row>
-    <row r="48" spans="2:41" x14ac:dyDescent="0.55000000000000004">
+      <c r="AM47" s="13"/>
+    </row>
+    <row r="48" spans="2:40" x14ac:dyDescent="0.4">
       <c r="AI48" s="6"/>
       <c r="AJ48" s="6"/>
       <c r="AK48" s="6"/>
       <c r="AL48" s="6"/>
       <c r="AM48" s="6"/>
-      <c r="AN48" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="K25:AM25"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="K28:O28"/>
-    <mergeCell ref="E5:M5"/>
-    <mergeCell ref="N5:AK5"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="S12:W12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="AB12:AF12"/>
-    <mergeCell ref="AI12:AN12"/>
-    <mergeCell ref="D46:O46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="R46:T46"/>
-    <mergeCell ref="U46:AG46"/>
-    <mergeCell ref="D42:O42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="R42:T42"/>
-    <mergeCell ref="U42:AG42"/>
-    <mergeCell ref="D43:O43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="R43:T43"/>
-    <mergeCell ref="U43:AG43"/>
-    <mergeCell ref="AB28:AF28"/>
-    <mergeCell ref="AI28:AN28"/>
-    <mergeCell ref="K41:AM41"/>
+    <mergeCell ref="K41:AL41"/>
     <mergeCell ref="S28:X28"/>
     <mergeCell ref="D47:O47"/>
     <mergeCell ref="P47:Q47"/>
@@ -4092,6 +4134,30 @@
     <mergeCell ref="P45:Q45"/>
     <mergeCell ref="R45:T45"/>
     <mergeCell ref="U45:AG45"/>
+    <mergeCell ref="AI28:AL28"/>
+    <mergeCell ref="D46:O46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="R46:T46"/>
+    <mergeCell ref="U46:AG46"/>
+    <mergeCell ref="D42:O42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="R42:T42"/>
+    <mergeCell ref="U42:AG42"/>
+    <mergeCell ref="D43:O43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="R43:T43"/>
+    <mergeCell ref="U43:AG43"/>
+    <mergeCell ref="K25:AL25"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="K28:O28"/>
+    <mergeCell ref="E5:M5"/>
+    <mergeCell ref="N5:AK5"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="S12:W12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="AB12:AF12"/>
+    <mergeCell ref="AB28:AF28"/>
+    <mergeCell ref="AI12:AL12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.62992125984251968" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.27559055118110237"/>
